--- a/reporteorden.xlsx
+++ b/reporteorden.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo py-3\empower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFFC185-9FE9-48F2-B493-0CB78469CB57}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BBE8E-D3FB-4ACA-9EF4-4927B556295D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="5295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>ASIGANDO</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>REPORTE DE COMPRAS</t>
+  </si>
+  <si>
+    <t>ASIGNADO</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -465,13 +465,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
